--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.64453125" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28338155178040758</v>
+        <v>0.27098956831771398</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28139031206878146</v>
+        <v>0.27037221240402903</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00034252820979157635</v>
+        <v>-0.0029807879425236003</v>
       </c>
       <c r="E3" s="0">
-        <v>-6.7659819282134821e-05</v>
+        <v>0.00068286896179351744</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0015595529248402416</v>
+        <v>-0.00043194121774947929</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016405783033797257</v>
+        <v>0.00045882922270212449</v>
       </c>
       <c r="H3" s="0">
-        <v>2.2974399982321784e-05</v>
+        <v>-2.6479508841643017e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-9.8940391244551823e-05</v>
+        <v>-0.00033297360714170049</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>2.1476405012821331e-05</v>
+        <v>0.00015512018329416621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.3021445913281337</v>
+        <v>0.36044802655052871</v>
       </c>
       <c r="C4" s="0">
-        <v>0.011122089902416487</v>
+        <v>0.037021434448316709</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>8.8246551077809215e-06</v>
+        <v>-7.5850394182192083e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-9.0282528628817898e-05</v>
+        <v>-2.0139348956763287e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.3956799055443243e-05</v>
+        <v>0.00021964577232848209</v>
       </c>
       <c r="I4" s="0">
-        <v>-7.201519226224453e-05</v>
+        <v>-0.007504605693142769</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00051670794748723975</v>
+        <v>0.002733888716463071</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00065350251673262916</v>
+        <v>-0.0008179099041725757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.30332298929956863</v>
+        <v>0.35276995768164465</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0034413701712638729</v>
+        <v>-0.00044184407469439194</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00019723301910727018</v>
+        <v>-0.00043852925214090885</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00053421725663950904</v>
+        <v>0.0070254948123072867</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00018268049831147567</v>
+        <v>-0.0012546915903708451</v>
       </c>
       <c r="H5" s="0">
-        <v>4.8121127730960515e-05</v>
+        <v>0.00053418831341814181</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00046167240433420256</v>
+        <v>-0.00085853897745509229</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0013808626206133212</v>
+        <v>-0.0054009010561568704</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29970307542404606</v>
+        <v>0.18989823641855483</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.008487464403614281</v>
+        <v>-0.020978708303396151</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.6333924730051336e-05</v>
+        <v>-0.0002017649699905057</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.697504130677285e-05</v>
+        <v>0.00038131127395011212</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.228525745020497e-05</v>
+        <v>0.00048074011299309639</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0006137998611252598</v>
+        <v>-0.0062771561431464642</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0022809036726331167</v>
+        <v>-0.00013307532331496841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29939769523871018</v>
+        <v>0.1794870829199755</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0027916641548967405</v>
+        <v>-0.013272326823034166</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0010810472187572622</v>
+        <v>-0.0019186611612645188</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00065651900870170585</v>
+        <v>0.0068420641410446795</v>
       </c>
       <c r="G7" s="0">
-        <v>-9.8826093751809191e-05</v>
+        <v>0.0027402202301818504</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.2572935283384154e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-5.1540260415634028e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.0014810329882017914</v>
+        <v>-0.00043316895814923817</v>
       </c>
     </row>
     <row r="8">
